--- a/resources/user-guides/crate-o/convert-spreadsheet/ro-crate-metadata-template.xlsx
+++ b/resources/user-guides/crate-o/convert-spreadsheet/ro-crate-metadata-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uqrsmi37/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656F5833-BF68-2E44-9056-83C997399EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2485CD-3C8D-A84E-BAAF-31C6BD6555F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1191,7 +1191,7 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="30" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="28" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1235,6 +1235,14 @@
     </xf>
     <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="58">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1616,7 +1624,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1688,7 +1696,7 @@
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6" t="str">
+      <c r="B7" s="25" t="str">
         <f>Authors!A2</f>
         <v>#LDaCA</v>
       </c>
@@ -1697,7 +1705,7 @@
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6" t="str">
+      <c r="B8" s="25" t="str">
         <f>Publishers!A2</f>
         <v>https://ror.org/00rqy9422</v>
       </c>
@@ -1706,7 +1714,7 @@
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="str">
+      <c r="B9" s="25" t="str">
         <f>Licenses!A2</f>
         <v>https://creativecommons.org/licenses/by/4.0/</v>
       </c>
@@ -50867,7 +50875,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -50876,7 +50884,7 @@
     <col min="2" max="2" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -50893,7 +50901,7 @@
       <c r="D1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="29" t="s">
         <v>152</v>
       </c>
       <c r="F1" s="15"/>
@@ -50913,7 +50921,7 @@
       <c r="D2" s="4">
         <v>144.9</v>
       </c>
-      <c r="E2" s="6" t="str">
+      <c r="E2" s="25" t="str">
         <f>"POINT(" &amp; D2 &amp; " " &amp; C2 &amp; ")"</f>
         <v>POINT(144.9 -37.8)</v>
       </c>
@@ -50931,7 +50939,7 @@
       <c r="D3" s="4">
         <v>153</v>
       </c>
-      <c r="E3" s="6" t="str">
+      <c r="E3" s="25" t="str">
         <f>"POINT(" &amp; D3 &amp; " " &amp; C3 &amp; ")"</f>
         <v>POINT(153 -27.4)</v>
       </c>
@@ -50947,19 +50955,19 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="32" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" style="5" bestFit="1" customWidth="1"/>
@@ -50970,7 +50978,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -50982,7 +50990,7 @@
       <c r="D1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="28" t="s">
         <v>67</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -50991,7 +50999,7 @@
       <c r="G1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="28" t="s">
         <v>35</v>
       </c>
       <c r="I1" s="7" t="s">
@@ -51014,7 +51022,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="6" t="str">
+      <c r="A2" s="25" t="str">
         <f>_xlfn.CONCAT("#",C2)</f>
         <v>#ExampleCollection_Speaker_01</v>
       </c>
@@ -51027,7 +51035,7 @@
       <c r="D2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="6" t="str">
+      <c r="E2" s="25" t="str">
         <f>SUBSTITUTE(_xlfn.CONCAT("#",F2)," ","_")</f>
         <v>#Speaker_01</v>
       </c>
@@ -51037,7 +51045,7 @@
       <c r="G2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="6" t="str">
+      <c r="H2" s="25" t="str">
         <f>RootDataset!B2</f>
         <v>./</v>
       </c>
@@ -51061,7 +51069,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="25" t="str">
         <f>_xlfn.CONCAT("#",C3)</f>
         <v>#ExampleCollection_Speaker_02</v>
       </c>
@@ -51074,7 +51082,7 @@
       <c r="D3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="6" t="str">
+      <c r="E3" s="25" t="str">
         <f>SUBSTITUTE(_xlfn.CONCAT("#",F3)," ","_")</f>
         <v>#Speaker_02</v>
       </c>
@@ -51084,7 +51092,7 @@
       <c r="G3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="6" t="str">
+      <c r="H3" s="25" t="str">
         <f>RootDataset!B2</f>
         <v>./</v>
       </c>
@@ -51106,235 +51114,235 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="H4" s="23"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="H5" s="23"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="H6" s="23"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="H7" s="23"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="H8" s="23"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="H9" s="23"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="23"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="H10" s="23"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="23"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="H11" s="23"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="23"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="H12" s="23"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="H13" s="23"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="23"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="H14" s="23"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="H15" s="23"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="H16" s="23"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="23"/>
     </row>
     <row r="17" spans="8:9">
-      <c r="H17" s="23"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="23"/>
     </row>
     <row r="18" spans="8:9">
-      <c r="H18" s="23"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="23"/>
     </row>
     <row r="19" spans="8:9">
-      <c r="H19" s="23"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="23"/>
     </row>
     <row r="20" spans="8:9">
-      <c r="H20" s="23"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="23"/>
     </row>
     <row r="21" spans="8:9">
-      <c r="H21" s="23"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="23"/>
     </row>
     <row r="22" spans="8:9">
-      <c r="H22" s="23"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="23"/>
     </row>
     <row r="23" spans="8:9">
-      <c r="H23" s="23"/>
+      <c r="H23" s="30"/>
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="8:9">
-      <c r="H24" s="23"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="23"/>
     </row>
     <row r="25" spans="8:9">
-      <c r="H25" s="23"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="8:9">
-      <c r="H26" s="23"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="8:9">
-      <c r="H27" s="23"/>
+      <c r="H27" s="30"/>
       <c r="I27" s="23"/>
     </row>
     <row r="28" spans="8:9">
-      <c r="H28" s="23"/>
+      <c r="H28" s="30"/>
       <c r="I28" s="23"/>
     </row>
     <row r="29" spans="8:9">
-      <c r="H29" s="23"/>
+      <c r="H29" s="30"/>
       <c r="I29" s="23"/>
     </row>
     <row r="30" spans="8:9">
-      <c r="H30" s="23"/>
+      <c r="H30" s="30"/>
       <c r="I30" s="23"/>
     </row>
     <row r="31" spans="8:9">
-      <c r="H31" s="23"/>
+      <c r="H31" s="30"/>
       <c r="I31" s="23"/>
     </row>
     <row r="32" spans="8:9">
-      <c r="H32" s="23"/>
+      <c r="H32" s="30"/>
       <c r="I32" s="23"/>
     </row>
     <row r="33" spans="8:9">
-      <c r="H33" s="23"/>
+      <c r="H33" s="30"/>
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="8:9">
-      <c r="H34" s="23"/>
+      <c r="H34" s="30"/>
       <c r="I34" s="23"/>
     </row>
     <row r="35" spans="8:9">
-      <c r="H35" s="23"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="23"/>
     </row>
     <row r="36" spans="8:9">
-      <c r="H36" s="23"/>
+      <c r="H36" s="30"/>
       <c r="I36" s="23"/>
     </row>
     <row r="37" spans="8:9">
-      <c r="H37" s="23"/>
+      <c r="H37" s="30"/>
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="8:9">
-      <c r="H38" s="23"/>
+      <c r="H38" s="30"/>
       <c r="I38" s="23"/>
     </row>
     <row r="39" spans="8:9">
-      <c r="H39" s="23"/>
+      <c r="H39" s="30"/>
       <c r="I39" s="23"/>
     </row>
     <row r="40" spans="8:9">
-      <c r="H40" s="23"/>
+      <c r="H40" s="30"/>
       <c r="I40" s="23"/>
     </row>
     <row r="41" spans="8:9">
-      <c r="H41" s="23"/>
+      <c r="H41" s="30"/>
       <c r="I41" s="23"/>
     </row>
     <row r="42" spans="8:9">
-      <c r="H42" s="23"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="23"/>
     </row>
     <row r="43" spans="8:9">
-      <c r="H43" s="23"/>
+      <c r="H43" s="30"/>
       <c r="I43" s="23"/>
     </row>
     <row r="44" spans="8:9">
-      <c r="H44" s="23"/>
+      <c r="H44" s="30"/>
       <c r="I44" s="23"/>
     </row>
     <row r="45" spans="8:9">
-      <c r="H45" s="23"/>
+      <c r="H45" s="30"/>
       <c r="I45" s="23"/>
     </row>
     <row r="46" spans="8:9">
-      <c r="H46" s="23"/>
+      <c r="H46" s="30"/>
       <c r="I46" s="23"/>
     </row>
     <row r="47" spans="8:9">
-      <c r="H47" s="23"/>
+      <c r="H47" s="30"/>
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="8:9">
-      <c r="H48" s="23"/>
+      <c r="H48" s="30"/>
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="8:9">
-      <c r="H49" s="23"/>
+      <c r="H49" s="30"/>
       <c r="I49" s="23"/>
     </row>
     <row r="50" spans="8:9">
-      <c r="H50" s="23"/>
+      <c r="H50" s="30"/>
       <c r="I50" s="23"/>
     </row>
     <row r="51" spans="8:9">
-      <c r="H51" s="23"/>
+      <c r="H51" s="30"/>
       <c r="I51" s="23"/>
     </row>
     <row r="52" spans="8:9">
-      <c r="H52" s="23"/>
+      <c r="H52" s="30"/>
       <c r="I52" s="23"/>
     </row>
     <row r="53" spans="8:9">
-      <c r="H53" s="23"/>
+      <c r="H53" s="30"/>
       <c r="I53" s="23"/>
     </row>
     <row r="54" spans="8:9">
-      <c r="H54" s="23"/>
+      <c r="H54" s="30"/>
       <c r="I54" s="23"/>
     </row>
     <row r="55" spans="8:9">
-      <c r="H55" s="23"/>
+      <c r="H55" s="30"/>
       <c r="I55" s="23"/>
     </row>
     <row r="56" spans="8:9">
-      <c r="H56" s="23"/>
+      <c r="H56" s="30"/>
       <c r="I56" s="23"/>
     </row>
     <row r="57" spans="8:9">
-      <c r="H57" s="23"/>
+      <c r="H57" s="30"/>
       <c r="I57" s="23"/>
     </row>
     <row r="58" spans="8:9">
-      <c r="H58" s="23"/>
+      <c r="H58" s="30"/>
       <c r="I58" s="23"/>
     </row>
     <row r="59" spans="8:9">
-      <c r="H59" s="23"/>
+      <c r="H59" s="30"/>
       <c r="I59" s="23"/>
     </row>
     <row r="60" spans="8:9">
-      <c r="H60" s="23"/>
+      <c r="H60" s="30"/>
       <c r="I60" s="23"/>
     </row>
     <row r="61" spans="8:9">
-      <c r="H61" s="23"/>
+      <c r="H61" s="30"/>
       <c r="I61" s="23"/>
     </row>
   </sheetData>
@@ -51349,12 +51357,12 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.1640625" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
@@ -51366,7 +51374,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -51392,7 +51400,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6" t="str">
+      <c r="A2" s="25" t="str">
         <f>_xlfn.CONCAT(_xlfn.CONCAT(D2,"/"),E2)</f>
         <v>Audio/ExampleCollection_Speaker_01.wav</v>
       </c>
@@ -51416,7 +51424,7 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="25" t="str">
         <f t="shared" ref="A3:A7" si="0">_xlfn.CONCAT(_xlfn.CONCAT(D3,"/"),E3)</f>
         <v>Audio/ExampleCollection_Speaker_02.wav</v>
       </c>
@@ -51440,7 +51448,7 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6" t="str">
+      <c r="A4" s="25" t="str">
         <f t="shared" si="0"/>
         <v>CSV/ExampleCollection_Speaker_01.csv</v>
       </c>
@@ -51468,7 +51476,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="6" t="str">
+      <c r="A5" s="25" t="str">
         <f t="shared" si="0"/>
         <v>CSV/ExampleCollection_Speaker_02.csv</v>
       </c>
@@ -51494,7 +51502,7 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" s="11" customFormat="1">
-      <c r="A6" s="6" t="str">
+      <c r="A6" s="25" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts/ExampleCollection_Speaker_01.eaf</v>
       </c>
@@ -51520,7 +51528,7 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="11" customFormat="1">
-      <c r="A7" s="6" t="str">
+      <c r="A7" s="25" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts/ExampleCollection_Speaker_02.eaf</v>
       </c>
@@ -51612,12 +51620,12 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.83203125" style="5" bestFit="1" customWidth="1"/>
@@ -51627,7 +51635,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -51647,7 +51655,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="str">
+      <c r="A2" s="25" t="str">
         <f>_xlfn.CONCAT("#col_",C2)</f>
         <v>#col_speakerID</v>
       </c>
@@ -51668,7 +51676,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="25" t="str">
         <f t="shared" ref="A3:A4" si="0">_xlfn.CONCAT("#col_",C3)</f>
         <v>#col_speakerName</v>
       </c>
@@ -51689,7 +51697,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="str">
+      <c r="A4" s="25" t="str">
         <f t="shared" si="0"/>
         <v>#col_text</v>
       </c>
@@ -51732,8 +51740,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -51781,12 +51789,12 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
@@ -51798,7 +51806,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -51824,7 +51832,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6" t="str">
+      <c r="A2" s="25" t="str">
         <f>_xlfn.CONCAT('@context'!B4, B2)</f>
         <v>arcp://name,custom/terms#textType</v>
       </c>
@@ -51845,7 +51853,7 @@
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="25" t="str">
         <f>_xlfn.CONCAT('@context'!B4, B3)</f>
         <v>arcp://name,custom/terms#Speech</v>
       </c>
@@ -51868,7 +51876,7 @@
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6" t="str">
+      <c r="A4" s="25" t="str">
         <f>_xlfn.CONCAT('@context'!B4, B4)</f>
         <v>arcp://name,custom/terms#Interview</v>
       </c>
@@ -51891,7 +51899,7 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="6" t="str">
+      <c r="A5" s="25" t="str">
         <f>_xlfn.CONCAT('@context'!B4, B5)</f>
         <v>arcp://name,custom/terms#TextTypeTerms</v>
       </c>
@@ -52011,7 +52019,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -52022,7 +52030,7 @@
     <col min="4" max="4" width="28.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -52045,7 +52053,7 @@
       <c r="F1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -52068,7 +52076,7 @@
       <c r="F2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="6" t="str">
+      <c r="G2" s="25" t="str">
         <f>RootDataset!B2</f>
         <v>./</v>
       </c>
@@ -52090,7 +52098,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="6" t="str">
+      <c r="G3" s="25" t="str">
         <f>RootDataset!B2</f>
         <v>./</v>
       </c>
@@ -52112,7 +52120,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="6" t="str">
+      <c r="G4" s="25" t="str">
         <f>RootDataset!B2</f>
         <v>./</v>
       </c>
@@ -52136,7 +52144,7 @@
       <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="str">
+      <c r="G5" s="25" t="str">
         <f>RootDataset!B2</f>
         <v>./</v>
       </c>
@@ -52232,12 +52240,12 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
@@ -52247,7 +52255,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1" ht="17" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -52267,7 +52275,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="str">
+      <c r="A2" s="25" t="str">
         <f>SUBSTITUTE(_xlfn.CONCAT("#",C2)," ","_")</f>
         <v>#Speaker_01</v>
       </c>
@@ -52286,7 +52294,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="25" t="str">
         <f>SUBSTITUTE(_xlfn.CONCAT("#",C3)," ","_")</f>
         <v>#Speaker_02</v>
       </c>
@@ -52748,7 +52756,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/resources/user-guides/crate-o/convert-spreadsheet/ro-crate-metadata-template.xlsx
+++ b/resources/user-guides/crate-o/convert-spreadsheet/ro-crate-metadata-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uqrsmi37/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uqrsmi37/Documents/Repos/ldaca-website/content/resources/user-guides/crate-o/convert-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2485CD-3C8D-A84E-BAAF-31C6BD6555F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEE2BB9-19C5-0240-9741-8281CFD7D8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RootDataset" sheetId="10" r:id="rId1"/>
@@ -1191,7 +1191,7 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="30" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="28" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1235,14 +1235,16 @@
     </xf>
     <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="42" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="58">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1624,7 +1626,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1696,7 +1698,7 @@
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="25" t="str">
+      <c r="B7" s="29" t="str">
         <f>Authors!A2</f>
         <v>#LDaCA</v>
       </c>
@@ -1705,7 +1707,7 @@
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25" t="str">
+      <c r="B8" s="29" t="str">
         <f>Publishers!A2</f>
         <v>https://ror.org/00rqy9422</v>
       </c>
@@ -1714,7 +1716,7 @@
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="25" t="str">
+      <c r="B9" s="29" t="str">
         <f>Licenses!A2</f>
         <v>https://creativecommons.org/licenses/by/4.0/</v>
       </c>
@@ -50875,7 +50877,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -50884,7 +50886,7 @@
     <col min="2" max="2" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -50901,7 +50903,7 @@
       <c r="D1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>152</v>
       </c>
       <c r="F1" s="15"/>
@@ -50955,19 +50957,19 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="32" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" style="31" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" style="5" bestFit="1" customWidth="1"/>
@@ -50978,7 +50980,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -50990,7 +50992,7 @@
       <c r="D1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="32" t="s">
         <v>67</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -50999,7 +51001,7 @@
       <c r="G1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="32" t="s">
         <v>35</v>
       </c>
       <c r="I1" s="7" t="s">
@@ -51022,7 +51024,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="25" t="str">
+      <c r="A2" s="29" t="str">
         <f>_xlfn.CONCAT("#",C2)</f>
         <v>#ExampleCollection_Speaker_01</v>
       </c>
@@ -51035,7 +51037,7 @@
       <c r="D2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="25" t="str">
+      <c r="E2" s="29" t="str">
         <f>SUBSTITUTE(_xlfn.CONCAT("#",F2)," ","_")</f>
         <v>#Speaker_01</v>
       </c>
@@ -51045,7 +51047,7 @@
       <c r="G2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="25" t="str">
+      <c r="H2" s="29" t="str">
         <f>RootDataset!B2</f>
         <v>./</v>
       </c>
@@ -51069,7 +51071,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="25" t="str">
+      <c r="A3" s="29" t="str">
         <f>_xlfn.CONCAT("#",C3)</f>
         <v>#ExampleCollection_Speaker_02</v>
       </c>
@@ -51082,7 +51084,7 @@
       <c r="D3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="25" t="str">
+      <c r="E3" s="29" t="str">
         <f>SUBSTITUTE(_xlfn.CONCAT("#",F3)," ","_")</f>
         <v>#Speaker_02</v>
       </c>
@@ -51092,7 +51094,7 @@
       <c r="G3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="25" t="str">
+      <c r="H3" s="29" t="str">
         <f>RootDataset!B2</f>
         <v>./</v>
       </c>
@@ -51114,235 +51116,235 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="H4" s="30"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="H5" s="30"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="H6" s="30"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="H7" s="30"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="H8" s="30"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="H9" s="30"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="23"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="H10" s="30"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="23"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="H11" s="30"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="23"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="H12" s="30"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="H13" s="30"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="23"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="H14" s="30"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="H15" s="30"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="H16" s="30"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="23"/>
     </row>
     <row r="17" spans="8:9">
-      <c r="H17" s="30"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="23"/>
     </row>
     <row r="18" spans="8:9">
-      <c r="H18" s="30"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="23"/>
     </row>
     <row r="19" spans="8:9">
-      <c r="H19" s="30"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="23"/>
     </row>
     <row r="20" spans="8:9">
-      <c r="H20" s="30"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="23"/>
     </row>
     <row r="21" spans="8:9">
-      <c r="H21" s="30"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="23"/>
     </row>
     <row r="22" spans="8:9">
-      <c r="H22" s="30"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="23"/>
     </row>
     <row r="23" spans="8:9">
-      <c r="H23" s="30"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="8:9">
-      <c r="H24" s="30"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="23"/>
     </row>
     <row r="25" spans="8:9">
-      <c r="H25" s="30"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="8:9">
-      <c r="H26" s="30"/>
+      <c r="H26" s="28"/>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="8:9">
-      <c r="H27" s="30"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="23"/>
     </row>
     <row r="28" spans="8:9">
-      <c r="H28" s="30"/>
+      <c r="H28" s="28"/>
       <c r="I28" s="23"/>
     </row>
     <row r="29" spans="8:9">
-      <c r="H29" s="30"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="23"/>
     </row>
     <row r="30" spans="8:9">
-      <c r="H30" s="30"/>
+      <c r="H30" s="28"/>
       <c r="I30" s="23"/>
     </row>
     <row r="31" spans="8:9">
-      <c r="H31" s="30"/>
+      <c r="H31" s="28"/>
       <c r="I31" s="23"/>
     </row>
     <row r="32" spans="8:9">
-      <c r="H32" s="30"/>
+      <c r="H32" s="28"/>
       <c r="I32" s="23"/>
     </row>
     <row r="33" spans="8:9">
-      <c r="H33" s="30"/>
+      <c r="H33" s="28"/>
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="8:9">
-      <c r="H34" s="30"/>
+      <c r="H34" s="28"/>
       <c r="I34" s="23"/>
     </row>
     <row r="35" spans="8:9">
-      <c r="H35" s="30"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="23"/>
     </row>
     <row r="36" spans="8:9">
-      <c r="H36" s="30"/>
+      <c r="H36" s="28"/>
       <c r="I36" s="23"/>
     </row>
     <row r="37" spans="8:9">
-      <c r="H37" s="30"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="8:9">
-      <c r="H38" s="30"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="23"/>
     </row>
     <row r="39" spans="8:9">
-      <c r="H39" s="30"/>
+      <c r="H39" s="28"/>
       <c r="I39" s="23"/>
     </row>
     <row r="40" spans="8:9">
-      <c r="H40" s="30"/>
+      <c r="H40" s="28"/>
       <c r="I40" s="23"/>
     </row>
     <row r="41" spans="8:9">
-      <c r="H41" s="30"/>
+      <c r="H41" s="28"/>
       <c r="I41" s="23"/>
     </row>
     <row r="42" spans="8:9">
-      <c r="H42" s="30"/>
+      <c r="H42" s="28"/>
       <c r="I42" s="23"/>
     </row>
     <row r="43" spans="8:9">
-      <c r="H43" s="30"/>
+      <c r="H43" s="28"/>
       <c r="I43" s="23"/>
     </row>
     <row r="44" spans="8:9">
-      <c r="H44" s="30"/>
+      <c r="H44" s="28"/>
       <c r="I44" s="23"/>
     </row>
     <row r="45" spans="8:9">
-      <c r="H45" s="30"/>
+      <c r="H45" s="28"/>
       <c r="I45" s="23"/>
     </row>
     <row r="46" spans="8:9">
-      <c r="H46" s="30"/>
+      <c r="H46" s="28"/>
       <c r="I46" s="23"/>
     </row>
     <row r="47" spans="8:9">
-      <c r="H47" s="30"/>
+      <c r="H47" s="28"/>
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="8:9">
-      <c r="H48" s="30"/>
+      <c r="H48" s="28"/>
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="8:9">
-      <c r="H49" s="30"/>
+      <c r="H49" s="28"/>
       <c r="I49" s="23"/>
     </row>
     <row r="50" spans="8:9">
-      <c r="H50" s="30"/>
+      <c r="H50" s="28"/>
       <c r="I50" s="23"/>
     </row>
     <row r="51" spans="8:9">
-      <c r="H51" s="30"/>
+      <c r="H51" s="28"/>
       <c r="I51" s="23"/>
     </row>
     <row r="52" spans="8:9">
-      <c r="H52" s="30"/>
+      <c r="H52" s="28"/>
       <c r="I52" s="23"/>
     </row>
     <row r="53" spans="8:9">
-      <c r="H53" s="30"/>
+      <c r="H53" s="28"/>
       <c r="I53" s="23"/>
     </row>
     <row r="54" spans="8:9">
-      <c r="H54" s="30"/>
+      <c r="H54" s="28"/>
       <c r="I54" s="23"/>
     </row>
     <row r="55" spans="8:9">
-      <c r="H55" s="30"/>
+      <c r="H55" s="28"/>
       <c r="I55" s="23"/>
     </row>
     <row r="56" spans="8:9">
-      <c r="H56" s="30"/>
+      <c r="H56" s="28"/>
       <c r="I56" s="23"/>
     </row>
     <row r="57" spans="8:9">
-      <c r="H57" s="30"/>
+      <c r="H57" s="28"/>
       <c r="I57" s="23"/>
     </row>
     <row r="58" spans="8:9">
-      <c r="H58" s="30"/>
+      <c r="H58" s="28"/>
       <c r="I58" s="23"/>
     </row>
     <row r="59" spans="8:9">
-      <c r="H59" s="30"/>
+      <c r="H59" s="28"/>
       <c r="I59" s="23"/>
     </row>
     <row r="60" spans="8:9">
-      <c r="H60" s="30"/>
+      <c r="H60" s="28"/>
       <c r="I60" s="23"/>
     </row>
     <row r="61" spans="8:9">
-      <c r="H61" s="30"/>
+      <c r="H61" s="28"/>
       <c r="I61" s="23"/>
     </row>
   </sheetData>
@@ -51357,12 +51359,12 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.1640625" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
@@ -51374,7 +51376,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -51400,7 +51402,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="25" t="str">
+      <c r="A2" s="29" t="str">
         <f>_xlfn.CONCAT(_xlfn.CONCAT(D2,"/"),E2)</f>
         <v>Audio/ExampleCollection_Speaker_01.wav</v>
       </c>
@@ -51424,7 +51426,7 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="25" t="str">
+      <c r="A3" s="29" t="str">
         <f t="shared" ref="A3:A7" si="0">_xlfn.CONCAT(_xlfn.CONCAT(D3,"/"),E3)</f>
         <v>Audio/ExampleCollection_Speaker_02.wav</v>
       </c>
@@ -51448,7 +51450,7 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="25" t="str">
+      <c r="A4" s="29" t="str">
         <f t="shared" si="0"/>
         <v>CSV/ExampleCollection_Speaker_01.csv</v>
       </c>
@@ -51476,7 +51478,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="25" t="str">
+      <c r="A5" s="29" t="str">
         <f t="shared" si="0"/>
         <v>CSV/ExampleCollection_Speaker_02.csv</v>
       </c>
@@ -51502,7 +51504,7 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" s="11" customFormat="1">
-      <c r="A6" s="25" t="str">
+      <c r="A6" s="29" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts/ExampleCollection_Speaker_01.eaf</v>
       </c>
@@ -51528,7 +51530,7 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="11" customFormat="1">
-      <c r="A7" s="25" t="str">
+      <c r="A7" s="29" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts/ExampleCollection_Speaker_02.eaf</v>
       </c>
@@ -51620,12 +51622,12 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.83203125" style="5" bestFit="1" customWidth="1"/>
@@ -51635,7 +51637,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -51655,7 +51657,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="25" t="str">
+      <c r="A2" s="29" t="str">
         <f>_xlfn.CONCAT("#col_",C2)</f>
         <v>#col_speakerID</v>
       </c>
@@ -51676,7 +51678,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="25" t="str">
+      <c r="A3" s="29" t="str">
         <f t="shared" ref="A3:A4" si="0">_xlfn.CONCAT("#col_",C3)</f>
         <v>#col_speakerName</v>
       </c>
@@ -51697,7 +51699,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="25" t="str">
+      <c r="A4" s="29" t="str">
         <f t="shared" si="0"/>
         <v>#col_text</v>
       </c>
@@ -51735,7 +51737,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51789,12 +51791,12 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
@@ -51806,7 +51808,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -51832,7 +51834,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="25" t="str">
+      <c r="A2" s="29" t="str">
         <f>_xlfn.CONCAT('@context'!B4, B2)</f>
         <v>arcp://name,custom/terms#textType</v>
       </c>
@@ -51853,7 +51855,7 @@
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="25" t="str">
+      <c r="A3" s="29" t="str">
         <f>_xlfn.CONCAT('@context'!B4, B3)</f>
         <v>arcp://name,custom/terms#Speech</v>
       </c>
@@ -51876,7 +51878,7 @@
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="25" t="str">
+      <c r="A4" s="29" t="str">
         <f>_xlfn.CONCAT('@context'!B4, B4)</f>
         <v>arcp://name,custom/terms#Interview</v>
       </c>
@@ -51899,7 +51901,7 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="25" t="str">
+      <c r="A5" s="29" t="str">
         <f>_xlfn.CONCAT('@context'!B4, B5)</f>
         <v>arcp://name,custom/terms#TextTypeTerms</v>
       </c>
@@ -51931,7 +51933,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51975,7 +51977,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -52017,9 +52019,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0185FB-629C-4D55-88F6-D91170558D6F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -52030,7 +52032,7 @@
     <col min="4" max="4" width="28.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="31" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -52053,7 +52055,7 @@
       <c r="F1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="32" t="s">
         <v>33</v>
       </c>
     </row>
@@ -52076,7 +52078,7 @@
       <c r="F2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="25" t="str">
+      <c r="G2" s="29" t="str">
         <f>RootDataset!B2</f>
         <v>./</v>
       </c>
@@ -52098,7 +52100,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="25" t="str">
+      <c r="G3" s="29" t="str">
         <f>RootDataset!B2</f>
         <v>./</v>
       </c>
@@ -52120,7 +52122,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="25" t="str">
+      <c r="G4" s="29" t="str">
         <f>RootDataset!B2</f>
         <v>./</v>
       </c>
@@ -52144,7 +52146,7 @@
       <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="25" t="str">
+      <c r="G5" s="29" t="str">
         <f>RootDataset!B2</f>
         <v>./</v>
       </c>
@@ -52240,12 +52242,12 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
@@ -52255,7 +52257,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1" ht="17" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -52275,7 +52277,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="25" t="str">
+      <c r="A2" s="29" t="str">
         <f>SUBSTITUTE(_xlfn.CONCAT("#",C2)," ","_")</f>
         <v>#Speaker_01</v>
       </c>
@@ -52294,7 +52296,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="25" t="str">
+      <c r="A3" s="29" t="str">
         <f>SUBSTITUTE(_xlfn.CONCAT("#",C3)," ","_")</f>
         <v>#Speaker_02</v>
       </c>
@@ -52756,7 +52758,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
